--- a/docs/oncocore-CancerDiseaseStatus.xlsx
+++ b/docs/oncocore-CancerDiseaseStatus.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="452">
   <si>
     <t>Path</t>
   </si>
@@ -1014,7 +1014,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodySiteVS</t>
+    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodyLocationVS</t>
   </si>
   <si>
     <t>OBX-20</t>
@@ -1600,7 +1600,7 @@
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="29.328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="26.734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
@@ -6329,7 +6329,7 @@
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>42</v>
@@ -6399,15 +6399,11 @@
       <c r="AD46" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE46" t="s" s="2">
-        <v>293</v>
-      </c>
+      <c r="AE46" s="2"/>
       <c r="AF46" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG46" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG46" s="2"/>
       <c r="AH46" t="s" s="2">
         <v>299</v>
       </c>
